--- a/00_additional_data/PAR_sensors_logbook.xlsx
+++ b/00_additional_data/PAR_sensors_logbook.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasminl\Dropbox (Weizmann Institute)\Ecophysiology group\Yasmin\04_code_flux_calc_Jonathan_Rafat\00_additional_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\GitHub\Laser-chamber-fluxes\00_additional_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26B464C-5FDE-49AB-A786-F172B54C6F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="par" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,38 +34,62 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
-  <si>
-    <t>cham no.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUX port </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>date</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>con1</t>
-  </si>
-  <si>
-    <t>irr1</t>
+    <t>b_irr1</t>
+  </si>
+  <si>
+    <t>b_con2</t>
+  </si>
+  <si>
+    <t>s_irr3</t>
+  </si>
+  <si>
+    <t>s_con4</t>
+  </si>
+  <si>
+    <t>s_irr5</t>
+  </si>
+  <si>
+    <t>s_con6</t>
+  </si>
+  <si>
+    <t>4 is irrigation</t>
+  </si>
+  <si>
+    <t>16 is control</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>&gt;0: MUX channel when working</t>
+  </si>
+  <si>
+    <t>0: when not measuring/working</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -94,9 +117,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,114 +417,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.578125" customWidth="1"/>
+    <col min="2" max="2" width="9.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>44050</v>
       </c>
-      <c r="B2">
-        <v>16</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="7">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1">
+        <v>44573</v>
+      </c>
+      <c r="B3" s="7">
         <v>4</v>
       </c>
+      <c r="C3" s="7">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>44050</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>44573</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>44573</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/00_additional_data/PAR_sensors_logbook.xlsx
+++ b/00_additional_data/PAR_sensors_logbook.xlsx
@@ -36,40 +36,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
+    <t>b_irr1</t>
+  </si>
+  <si>
+    <t>b_con2</t>
+  </si>
+  <si>
+    <t>s_irr3</t>
+  </si>
+  <si>
+    <t>s_con4</t>
+  </si>
+  <si>
+    <t>s_irr5</t>
+  </si>
+  <si>
+    <t>s_con6</t>
+  </si>
+  <si>
+    <t>4 is irrigation</t>
+  </si>
+  <si>
+    <t>16 is control</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>&gt;0: MUX channel when working</t>
+  </si>
+  <si>
+    <t>0: when not measuring/working</t>
+  </si>
+  <si>
     <t>date</t>
-  </si>
-  <si>
-    <t>b_irr1</t>
-  </si>
-  <si>
-    <t>b_con2</t>
-  </si>
-  <si>
-    <t>s_irr3</t>
-  </si>
-  <si>
-    <t>s_con4</t>
-  </si>
-  <si>
-    <t>s_irr5</t>
-  </si>
-  <si>
-    <t>s_con6</t>
-  </si>
-  <si>
-    <t>4 is irrigation</t>
-  </si>
-  <si>
-    <t>16 is control</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>&gt;0: MUX channel when working</t>
-  </si>
-  <si>
-    <t>0: when not measuring/working</t>
   </si>
 </sst>
 </file>
@@ -420,9 +420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -432,28 +430,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -479,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -505,7 +503,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -517,7 +515,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -527,7 +525,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
